--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 AR.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>Course</t>
   </si>
@@ -211,6 +211,75 @@
     <t>57.14%</t>
   </si>
   <si>
+    <t>COSC-254</t>
+  </si>
+  <si>
+    <t>SEGNER R</t>
+  </si>
+  <si>
+    <t>29.03%</t>
+  </si>
+  <si>
+    <t>25.81%</t>
+  </si>
+  <si>
+    <t>12.90%</t>
+  </si>
+  <si>
+    <t>3.23%</t>
+  </si>
+  <si>
+    <t>COSC-275</t>
+  </si>
+  <si>
+    <t>WORKMAN R</t>
+  </si>
+  <si>
+    <t>17.39%</t>
+  </si>
+  <si>
+    <t>69.57%</t>
+  </si>
+  <si>
+    <t>13.04%</t>
+  </si>
+  <si>
+    <t>DUFF M</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>COSC-301</t>
+  </si>
+  <si>
+    <t>WILLIAMSON K</t>
+  </si>
+  <si>
+    <t>17.78%</t>
+  </si>
+  <si>
+    <t>68.89%</t>
+  </si>
+  <si>
+    <t>13.33%</t>
+  </si>
+  <si>
+    <t>COSC-321</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>40.00%</t>
+  </si>
+  <si>
     <t>COSC-325</t>
   </si>
   <si>
@@ -358,9 +427,6 @@
     <t>COSC-475</t>
   </si>
   <si>
-    <t>DUFF M</t>
-  </si>
-  <si>
     <t>46.67%</t>
   </si>
   <si>
@@ -388,9 +454,6 @@
     <t>COSC-484</t>
   </si>
   <si>
-    <t>16.67%</t>
-  </si>
-  <si>
     <t>3.33%</t>
   </si>
   <si>
@@ -484,18 +547,12 @@
     <t>60.00%</t>
   </si>
   <si>
-    <t>40.00%</t>
-  </si>
-  <si>
     <t>PLAN-625</t>
   </si>
   <si>
     <t>WUNNEBURGER D</t>
   </si>
   <si>
-    <t>66.67%</t>
-  </si>
-  <si>
     <t>22.22%</t>
   </si>
   <si>
@@ -506,6 +563,15 @@
   </si>
   <si>
     <t>JOH K</t>
+  </si>
+  <si>
+    <t>URPN-220</t>
+  </si>
+  <si>
+    <t>KIM Y</t>
+  </si>
+  <si>
+    <t>26.67%</t>
   </si>
   <si>
     <t>URPN-301</t>
@@ -896,7 +962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,19 +1393,19 @@
         <v>66</v>
       </c>
       <c r="C43" t="n">
-        <v>3.103</v>
+        <v>2.677</v>
       </c>
       <c r="D43" t="s">
         <v>67</v>
       </c>
       <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" t="s">
         <v>68</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>69</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
       </c>
       <c r="H43" t="s">
         <v>70</v>
@@ -1355,889 +1421,1052 @@
         <v>72</v>
       </c>
       <c r="C46" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.103</v>
+      </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="n">
         <v>3.5</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D59" t="s">
         <v>36</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E59" t="s">
         <v>36</v>
       </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="n">
         <v>3.522</v>
       </c>
-      <c r="D49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.682</v>
+      </c>
+      <c r="D65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="B77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" t="s">
+        <v>119</v>
+      </c>
+      <c r="G77" t="s">
+        <v>120</v>
+      </c>
+      <c r="H77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.483</v>
+      </c>
+      <c r="D83" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" t="s">
+        <v>128</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.593</v>
+      </c>
+      <c r="D86" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3.381</v>
+      </c>
+      <c r="D89" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" t="s">
+        <v>135</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" t="s">
         <v>76</v>
       </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="C92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" t="s">
+        <v>138</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="D95" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" t="s">
+        <v>142</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.767</v>
+      </c>
+      <c r="D101" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" t="s">
+      <c r="F101" t="s">
+        <v>146</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="D104" t="s">
+        <v>149</v>
+      </c>
+      <c r="E104" t="s">
+        <v>150</v>
+      </c>
+      <c r="F104" t="s">
+        <v>151</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.562</v>
+      </c>
+      <c r="D107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" t="s">
+        <v>155</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="D110" t="s">
+        <v>158</v>
+      </c>
+      <c r="E110" t="s">
+        <v>159</v>
+      </c>
+      <c r="F110" t="s">
+        <v>160</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="B113" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D113" t="s">
+        <v>163</v>
+      </c>
+      <c r="E113" t="s">
+        <v>164</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="D116" t="s">
+        <v>166</v>
+      </c>
+      <c r="E116" t="s">
+        <v>167</v>
+      </c>
+      <c r="F116" t="s">
+        <v>158</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" t="s">
+        <v>169</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D119" t="s">
+        <v>170</v>
+      </c>
+      <c r="E119" t="s">
+        <v>171</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="B122" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" t="s">
+        <v>175</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>176</v>
+      </c>
+      <c r="E125" t="s">
+        <v>87</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="B128" t="s">
+        <v>178</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D128" t="s">
         <v>78</v>
       </c>
-      <c r="C52" t="n">
-        <v>2.682</v>
-      </c>
-      <c r="D52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" t="n">
+      <c r="E128" t="s">
+        <v>179</v>
+      </c>
+      <c r="F128" t="s">
+        <v>180</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="B131" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>176</v>
+      </c>
+      <c r="E131" t="s">
+        <v>114</v>
+      </c>
+      <c r="F131" t="s">
+        <v>114</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="B134" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D134" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" t="s">
+        <v>185</v>
+      </c>
+      <c r="F134" t="s">
+        <v>138</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="B137" t="s">
+        <v>187</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3.381</v>
+      </c>
+      <c r="D137" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137" t="s">
+        <v>189</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="B140" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>176</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>114</v>
+      </c>
+      <c r="H140" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="B143" t="s">
+        <v>192</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3.316</v>
+      </c>
+      <c r="D143" t="s">
+        <v>193</v>
+      </c>
+      <c r="E143" t="s">
+        <v>194</v>
+      </c>
+      <c r="F143" t="s">
+        <v>158</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="B146" t="s">
+        <v>51</v>
+      </c>
+      <c r="C146" t="n">
         <v>4</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D146" t="s">
         <v>33</v>
       </c>
-      <c r="E55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D58" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" t="s">
-        <v>86</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" t="s">
-        <v>95</v>
-      </c>
-      <c r="F64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G64" t="s">
-        <v>97</v>
-      </c>
-      <c r="H64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="B67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="D67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="B70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" t="n">
-        <v>3.483</v>
-      </c>
-      <c r="D70" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F70" t="s">
-        <v>105</v>
-      </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3.593</v>
-      </c>
-      <c r="D73" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" t="s">
-        <v>108</v>
-      </c>
-      <c r="F73" t="s">
-        <v>109</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3.381</v>
-      </c>
-      <c r="D76" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" t="s">
-        <v>112</v>
-      </c>
-      <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D79" t="s">
-        <v>115</v>
-      </c>
-      <c r="E79" t="s">
-        <v>115</v>
-      </c>
-      <c r="F79" t="s">
-        <v>116</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="B82" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="D82" t="s">
-        <v>119</v>
-      </c>
-      <c r="E82" t="s">
-        <v>120</v>
-      </c>
-      <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="B85" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" t="n">
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="B149" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D149" t="s">
+        <v>63</v>
+      </c>
+      <c r="E149" t="s">
+        <v>198</v>
+      </c>
+      <c r="F149" t="s">
+        <v>199</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="B152" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D152" t="s">
+        <v>59</v>
+      </c>
+      <c r="E152" t="s">
+        <v>60</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="B155" t="s">
+        <v>203</v>
+      </c>
+      <c r="C155" t="n">
         <v>4</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D155" t="s">
         <v>33</v>
       </c>
-      <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="B88" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" t="n">
-        <v>3.767</v>
-      </c>
-      <c r="D88" t="s">
-        <v>90</v>
-      </c>
-      <c r="E88" t="s">
-        <v>124</v>
-      </c>
-      <c r="F88" t="s">
-        <v>125</v>
-      </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="D91" t="s">
-        <v>128</v>
-      </c>
-      <c r="E91" t="s">
-        <v>129</v>
-      </c>
-      <c r="F91" t="s">
-        <v>130</v>
-      </c>
-      <c r="G91" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="B94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3.562</v>
-      </c>
-      <c r="D94" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" t="s">
-        <v>134</v>
-      </c>
-      <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="B97" t="s">
-        <v>136</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.895</v>
-      </c>
-      <c r="D97" t="s">
-        <v>137</v>
-      </c>
-      <c r="E97" t="s">
-        <v>138</v>
-      </c>
-      <c r="F97" t="s">
-        <v>139</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="B100" t="s">
-        <v>141</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D100" t="s">
-        <v>142</v>
-      </c>
-      <c r="E100" t="s">
-        <v>143</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>141</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2.947</v>
-      </c>
-      <c r="D103" t="s">
-        <v>145</v>
-      </c>
-      <c r="E103" t="s">
-        <v>146</v>
-      </c>
-      <c r="F103" t="s">
-        <v>137</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="B106" t="s">
-        <v>148</v>
-      </c>
-      <c r="C106" t="n">
-        <v>3.769</v>
-      </c>
-      <c r="D106" t="s">
-        <v>149</v>
-      </c>
-      <c r="E106" t="s">
-        <v>150</v>
-      </c>
-      <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" t="s">
-        <v>152</v>
-      </c>
-      <c r="C109" t="n">
-        <v>4</v>
-      </c>
-      <c r="D109" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="B112" t="s">
-        <v>154</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D112" t="s">
-        <v>155</v>
-      </c>
-      <c r="E112" t="s">
-        <v>156</v>
-      </c>
-      <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="B115" t="s">
-        <v>158</v>
-      </c>
-      <c r="C115" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="D115" t="s">
-        <v>159</v>
-      </c>
-      <c r="E115" t="s">
-        <v>160</v>
-      </c>
-      <c r="F115" t="s">
-        <v>161</v>
-      </c>
-      <c r="G115" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="B118" t="s">
-        <v>163</v>
-      </c>
-      <c r="C118" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D118" t="s">
-        <v>155</v>
-      </c>
-      <c r="E118" t="s">
-        <v>91</v>
-      </c>
-      <c r="F118" t="s">
-        <v>91</v>
-      </c>
-      <c r="G118" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="B121" t="s">
-        <v>165</v>
-      </c>
-      <c r="C121" t="n">
-        <v>3.381</v>
-      </c>
-      <c r="D121" t="s">
-        <v>166</v>
-      </c>
-      <c r="E121" t="s">
-        <v>167</v>
-      </c>
-      <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="B124" t="s">
-        <v>158</v>
-      </c>
-      <c r="C124" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D124" t="s">
-        <v>155</v>
-      </c>
-      <c r="E124" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s">
-        <v>91</v>
-      </c>
-      <c r="H124" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="B127" t="s">
-        <v>170</v>
-      </c>
-      <c r="C127" t="n">
-        <v>3.316</v>
-      </c>
-      <c r="D127" t="s">
-        <v>171</v>
-      </c>
-      <c r="E127" t="s">
-        <v>172</v>
-      </c>
-      <c r="F127" t="s">
-        <v>137</v>
-      </c>
-      <c r="G127" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="B130" t="s">
-        <v>51</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4</v>
-      </c>
-      <c r="D130" t="s">
-        <v>33</v>
-      </c>
-      <c r="E130" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="B133" t="s">
-        <v>175</v>
-      </c>
-      <c r="C133" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="D133" t="s">
-        <v>63</v>
-      </c>
-      <c r="E133" t="s">
-        <v>176</v>
-      </c>
-      <c r="F133" t="s">
-        <v>177</v>
-      </c>
-      <c r="G133" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="B136" t="s">
-        <v>179</v>
-      </c>
-      <c r="C136" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D136" t="s">
-        <v>59</v>
-      </c>
-      <c r="E136" t="s">
-        <v>60</v>
-      </c>
-      <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="B139" t="s">
-        <v>181</v>
-      </c>
-      <c r="C139" t="n">
-        <v>4</v>
-      </c>
-      <c r="D139" t="s">
-        <v>33</v>
-      </c>
-      <c r="E139" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 AR.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 AR.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ARCH-249</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>2.04%</t>
   </si>
   <si>
+    <t>1.34%</t>
+  </si>
+  <si>
     <t>ARTS-310</t>
   </si>
   <si>
@@ -166,6 +172,9 @@
     <t>2.56%</t>
   </si>
   <si>
+    <t>4.88%</t>
+  </si>
+  <si>
     <t>CARC-311</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
     <t>3.23%</t>
   </si>
   <si>
+    <t>3.13%</t>
+  </si>
+  <si>
     <t>COSC-275</t>
   </si>
   <si>
@@ -280,6 +292,9 @@
     <t>40.00%</t>
   </si>
   <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>COSC-325</t>
   </si>
   <si>
@@ -322,9 +337,6 @@
     <t>BILBO D</t>
   </si>
   <si>
-    <t>9.09%</t>
-  </si>
-  <si>
     <t>40.91%</t>
   </si>
   <si>
@@ -349,6 +361,9 @@
     <t>4.76%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>COSC-381</t>
   </si>
   <si>
@@ -380,6 +395,9 @@
   </si>
   <si>
     <t>4.26%</t>
+  </si>
+  <si>
+    <t>2.08%</t>
   </si>
   <si>
     <t>COSC-461</t>
@@ -663,12 +681,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -962,15 +979,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -995,1479 +1012,1641 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.372</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>3.463</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>2.923</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>3.625</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
         <v>3.5</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
         <v>3.701</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24" t="n">
         <v>3.611</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C27" t="n">
         <v>2.923</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C34" t="n">
         <v>3.857</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C37" t="n">
         <v>3.75</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C40" t="n">
         <v>3.143</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C43" t="n">
         <v>2.677</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C46" t="n">
         <v>3.044</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C47" t="n">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C50" t="n">
         <v>3.044</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" t="n">
         <v>2.2</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C56" t="n">
         <v>3.103</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C59" t="n">
         <v>3.5</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C62" t="n">
         <v>3.522</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C65" t="n">
         <v>2.682</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C71" t="n">
         <v>3.571</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C74" t="n">
         <v>3.8</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E74" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C77" t="n">
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E77" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F77" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G77" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C80" t="n">
         <v>3.154</v>
       </c>
       <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
         <v>24</v>
       </c>
-      <c r="E80" t="s">
-        <v>23</v>
-      </c>
       <c r="F80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C83" t="n">
         <v>3.483</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E83" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F83" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C86" t="n">
         <v>3.593</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E86" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="B89" t="s">
         <v>131</v>
-      </c>
-      <c r="F86" t="s">
-        <v>132</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="B89" t="s">
-        <v>125</v>
       </c>
       <c r="C89" t="n">
         <v>3.381</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C92" t="n">
         <v>3.4</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E92" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F92" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C95" t="n">
         <v>3.864</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E95" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C101" t="n">
         <v>3.767</v>
       </c>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E101" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F101" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C104" t="n">
         <v>3.873</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E104" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F104" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C107" t="n">
         <v>3.562</v>
       </c>
       <c r="D107" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E107" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C110" t="n">
         <v>2.895</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E110" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F110" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C113" t="n">
         <v>3.071</v>
       </c>
       <c r="D113" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E113" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C116" t="n">
         <v>2.947</v>
       </c>
       <c r="D116" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E116" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C119" t="n">
         <v>3.769</v>
       </c>
       <c r="D119" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E119" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C122" t="n">
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C125" t="n">
         <v>3.6</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E125" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C128" t="n">
         <v>3.556</v>
       </c>
       <c r="D128" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E128" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F128" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C131" t="n">
         <v>3.4</v>
       </c>
       <c r="D131" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E131" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F131" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C134" t="n">
         <v>3.333</v>
       </c>
       <c r="D134" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E134" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F134" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C137" t="n">
         <v>3.381</v>
       </c>
       <c r="D137" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E137" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C140" t="n">
         <v>2.6</v>
       </c>
       <c r="D140" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G140" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H140" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C143" t="n">
         <v>3.316</v>
       </c>
       <c r="D143" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E143" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F143" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C149" t="n">
         <v>3.25</v>
       </c>
       <c r="D149" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E149" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F149" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C152" t="n">
         <v>3.75</v>
       </c>
       <c r="D152" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E152" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 AR.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>Course</t>
   </si>
@@ -382,6 +382,18 @@
     <t>4.26%</t>
   </si>
   <si>
+    <t>COSC-442</t>
+  </si>
+  <si>
+    <t>FERNANDEZ-SOLIS J</t>
+  </si>
+  <si>
+    <t>92.86%</t>
+  </si>
+  <si>
+    <t>7.14%</t>
+  </si>
+  <si>
     <t>COSC-461</t>
   </si>
   <si>
@@ -503,12 +515,6 @@
   </si>
   <si>
     <t>LEE S</t>
-  </si>
-  <si>
-    <t>7.14%</t>
-  </si>
-  <si>
-    <t>92.86%</t>
   </si>
   <si>
     <t>ENDS-116</t>
@@ -962,7 +968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1752,19 +1758,19 @@
         <v>123</v>
       </c>
       <c r="C80" t="n">
-        <v>3.154</v>
+        <v>3.929</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="E80" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -1772,27 +1778,27 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C83" t="n">
-        <v>3.483</v>
+        <v>3.154</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -1800,15 +1806,15 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C86" t="n">
-        <v>3.593</v>
+        <v>3.483</v>
       </c>
       <c r="D86" t="s">
         <v>130</v>
@@ -1833,10 +1839,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C89" t="n">
-        <v>3.381</v>
+        <v>3.593</v>
       </c>
       <c r="D89" t="s">
         <v>134</v>
@@ -1845,7 +1851,7 @@
         <v>135</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="G89" t="s">
         <v>13</v>
@@ -1856,24 +1862,24 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="C92" t="n">
-        <v>3.4</v>
+        <v>3.381</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E92" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F92" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
         <v>13</v>
@@ -1884,24 +1890,24 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="B95" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="C95" t="n">
-        <v>3.864</v>
+        <v>3.4</v>
       </c>
       <c r="D95" t="s">
         <v>141</v>
       </c>
       <c r="E95" t="s">
+        <v>141</v>
+      </c>
+      <c r="F95" t="s">
         <v>142</v>
-      </c>
-      <c r="F95" t="s">
-        <v>13</v>
       </c>
       <c r="G95" t="s">
         <v>13</v>
@@ -1920,13 +1926,13 @@
         <v>144</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3.864</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -1940,24 +1946,24 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C101" t="n">
-        <v>3.767</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="E101" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
@@ -1968,24 +1974,24 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C104" t="n">
-        <v>3.873</v>
+        <v>3.767</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="E104" t="s">
+        <v>77</v>
+      </c>
+      <c r="F104" t="s">
         <v>150</v>
-      </c>
-      <c r="F104" t="s">
-        <v>151</v>
       </c>
       <c r="G104" t="s">
         <v>13</v>
@@ -1996,24 +2002,24 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="D107" t="s">
         <v>153</v>
       </c>
-      <c r="C107" t="n">
-        <v>3.562</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>154</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>155</v>
-      </c>
-      <c r="F107" t="s">
-        <v>13</v>
       </c>
       <c r="G107" t="s">
         <v>13</v>
@@ -2032,7 +2038,7 @@
         <v>157</v>
       </c>
       <c r="C110" t="n">
-        <v>2.895</v>
+        <v>3.562</v>
       </c>
       <c r="D110" t="s">
         <v>158</v>
@@ -2041,7 +2047,7 @@
         <v>159</v>
       </c>
       <c r="F110" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
         <v>13</v>
@@ -2052,24 +2058,24 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="B113" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="D113" t="s">
         <v>162</v>
       </c>
-      <c r="C113" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>163</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>164</v>
-      </c>
-      <c r="F113" t="s">
-        <v>13</v>
       </c>
       <c r="G113" t="s">
         <v>13</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="116" spans="1:8">
       <c r="B116" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C116" t="n">
-        <v>2.947</v>
+        <v>3.071</v>
       </c>
       <c r="D116" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="E116" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
         <v>13</v>
@@ -2108,24 +2114,24 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="B119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="D119" t="s">
+        <v>168</v>
+      </c>
+      <c r="E119" t="s">
         <v>169</v>
       </c>
-      <c r="C119" t="n">
-        <v>3.769</v>
-      </c>
-      <c r="D119" t="s">
-        <v>170</v>
-      </c>
-      <c r="E119" t="s">
-        <v>171</v>
-      </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="G119" t="s">
         <v>13</v>
@@ -2136,21 +2142,21 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" t="s">
+        <v>171</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D122" t="s">
+        <v>172</v>
+      </c>
+      <c r="E122" t="s">
         <v>173</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4</v>
-      </c>
-      <c r="D122" t="s">
-        <v>33</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>13</v>
@@ -2172,13 +2178,13 @@
         <v>175</v>
       </c>
       <c r="C125" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E125" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
@@ -2192,24 +2198,24 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
+        <v>177</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D128" t="s">
         <v>178</v>
       </c>
-      <c r="C128" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="D128" t="s">
-        <v>78</v>
-      </c>
       <c r="E128" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="F128" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
         <v>13</v>
@@ -2220,24 +2226,24 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D131" t="s">
+        <v>78</v>
+      </c>
+      <c r="E131" t="s">
+        <v>181</v>
+      </c>
+      <c r="F131" t="s">
         <v>182</v>
-      </c>
-      <c r="C131" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D131" t="s">
-        <v>176</v>
-      </c>
-      <c r="E131" t="s">
-        <v>114</v>
-      </c>
-      <c r="F131" t="s">
-        <v>114</v>
       </c>
       <c r="G131" t="s">
         <v>13</v>
@@ -2256,128 +2262,128 @@
         <v>184</v>
       </c>
       <c r="C134" t="n">
-        <v>3.333</v>
+        <v>3.4</v>
       </c>
       <c r="D134" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E134" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="F134" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="G134" t="s">
         <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
+        <v>186</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D137" t="s">
+        <v>178</v>
+      </c>
+      <c r="E137" t="s">
         <v>187</v>
       </c>
-      <c r="C137" t="n">
-        <v>3.381</v>
-      </c>
-      <c r="D137" t="s">
-        <v>188</v>
-      </c>
-      <c r="E137" t="s">
-        <v>189</v>
-      </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="G137" t="s">
         <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="B140" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C140" t="n">
-        <v>2.6</v>
+        <v>3.381</v>
       </c>
       <c r="D140" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="F140" t="s">
         <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C143" t="n">
-        <v>3.316</v>
+        <v>2.6</v>
       </c>
       <c r="D143" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E143" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="C146" t="n">
-        <v>4</v>
+        <v>3.316</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="G146" t="s">
         <v>13</v>
@@ -2388,24 +2394,24 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="B149" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="C149" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E149" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="F149" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
         <v>13</v>
@@ -2416,24 +2422,24 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="B152" t="s">
+        <v>199</v>
+      </c>
+      <c r="C152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D152" t="s">
+        <v>63</v>
+      </c>
+      <c r="E152" t="s">
+        <v>200</v>
+      </c>
+      <c r="F152" t="s">
         <v>201</v>
-      </c>
-      <c r="C152" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D152" t="s">
-        <v>59</v>
-      </c>
-      <c r="E152" t="s">
-        <v>60</v>
-      </c>
-      <c r="F152" t="s">
-        <v>13</v>
       </c>
       <c r="G152" t="s">
         <v>13</v>
@@ -2452,21 +2458,49 @@
         <v>203</v>
       </c>
       <c r="C155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D155" t="s">
+        <v>59</v>
+      </c>
+      <c r="E155" t="s">
+        <v>60</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="B158" t="s">
+        <v>205</v>
+      </c>
+      <c r="C158" t="n">
         <v>4</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D158" t="s">
         <v>33</v>
       </c>
-      <c r="E155" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" t="s">
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" t="s">
         <v>13</v>
       </c>
     </row>
